--- a/data/mila_publications.xlsx
+++ b/data/mila_publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,78 +525,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Top menu</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2023-04-25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>A joint initiative of CIFAR and Mila, the AI Insights for Policymakers Program connects decision-makers with leading AI researchers through office hours and policy feasibility testing. The next session will be held on October 9 and 10.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>https://arxiv.org/pdf/2304.12620.pdf</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://mila.quebec/en/media-resources</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>https://mila.quebec/en/research/strategic-priorities/ai-and-health</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>en/research/strategic-priorities/ai-and-health</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Top menu</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>AI and Health | Mila</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Mila's researchers contribute to various areas of healthcare research, including drug discovery, medical imaging and neuroscience.</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>21897</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
